--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_0_9.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_0_9.xlsx
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20355670.24425592</v>
+        <v>20355670.24425594</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4812058.02286789</v>
+        <v>4812058.022867889</v>
       </c>
     </row>
     <row r="11">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,31 +1175,31 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>22.56635248423083</v>
+      </c>
+      <c r="X8" t="n">
         <v>25.62029119463083</v>
       </c>
-      <c r="S8" t="n">
+      <c r="Y8" t="n">
         <v>25.62029119463083</v>
-      </c>
-      <c r="T8" t="n">
-        <v>25.62029119463083</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0.6263639150735023</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1215,19 +1215,19 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>21.81976115797297</v>
+      </c>
+      <c r="H9" t="n">
         <v>25.62029119463083</v>
-      </c>
-      <c r="E9" t="n">
-        <v>25.62029119463083</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>21.81976115797297</v>
       </c>
       <c r="I9" t="n">
         <v>25.62029119463083</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1309,13 +1309,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>23.19571111787229</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1330,19 +1330,19 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>25.62029119463083</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1379,19 +1379,19 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>0.6263639150735093</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1415,16 +1415,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>12.57565326968602</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1461,13 +1461,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>21.81976115797297</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -1497,13 +1497,13 @@
         <v>25.62029119463083</v>
       </c>
       <c r="S12" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>21.81976115797297</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1543,13 +1543,13 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="K13" t="n">
         <v>19.84491174912431</v>
@@ -1570,13 +1570,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1649,10 +1649,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>25.62029119463083</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="S14" t="n">
         <v>25.62029119463083</v>
@@ -1661,7 +1661,7 @@
         <v>25.62029119463083</v>
       </c>
       <c r="U14" t="n">
-        <v>12.57565326968602</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1731,22 +1731,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>22.56635248423083</v>
+      </c>
+      <c r="U15" t="n">
         <v>25.62029119463083</v>
       </c>
-      <c r="S15" t="n">
+      <c r="V15" t="n">
         <v>25.62029119463083</v>
       </c>
-      <c r="T15" t="n">
+      <c r="W15" t="n">
         <v>25.62029119463083</v>
-      </c>
-      <c r="U15" t="n">
-        <v>22.56635248423083</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1780,16 +1780,16 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>23.19571111787229</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="K16" t="n">
-        <v>19.84491174912431</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1807,13 +1807,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1968,25 +1968,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>24.30129424928645</v>
+      </c>
+      <c r="T18" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="S18" t="n">
+      <c r="U18" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="T18" t="n">
-        <v>24.30129424928645</v>
-      </c>
-      <c r="U18" t="n">
-        <v>0</v>
-      </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="X18" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>19.72731862540289</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2041,25 +2041,25 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>22.44875936050941</v>
+      </c>
+      <c r="U19" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="R19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2068,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2081,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C20" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2093,13 +2093,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2157,10 +2157,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2169,19 +2169,19 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>17.84792012666432</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2211,22 +2211,22 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>123.3365499318636</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2263,7 +2263,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -2278,13 +2278,13 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2296,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2321,22 +2321,22 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G23" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2375,7 +2375,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2394,28 +2394,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>118.5540130169416</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,28 +2442,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>196.5315760613044</v>
       </c>
     </row>
     <row r="25">
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2542,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2597,28 +2597,28 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2640,13 +2640,13 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>146.9102640950556</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>118.7764738957966</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -2688,10 +2688,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -2700,7 +2700,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2767,13 +2767,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2795,7 +2795,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>80.33470701582003</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2804,61 +2804,61 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X29" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2871,10 +2871,10 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -2889,10 +2889,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>81.94696239689883</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2919,10 +2919,10 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -2931,13 +2931,13 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>237.7185314161495</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2959,7 +2959,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2989,13 +2989,13 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3026,10 +3026,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3041,7 +3041,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>215.3939976830282</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3071,7 +3071,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -3089,10 +3089,10 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>179.7283339446665</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>215.3939976830282</v>
+        <v>189.7190331592112</v>
       </c>
       <c r="Y32" t="n">
         <v>215.3939976830282</v>
@@ -3105,10 +3105,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3126,10 +3126,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>8.886618849664252</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3159,16 +3159,16 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>84.45707126307319</v>
       </c>
       <c r="W33" t="n">
-        <v>215.3939976830282</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -3184,61 +3184,61 @@
         </is>
       </c>
       <c r="B34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3266,13 +3266,13 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
         <v>215.3939976830282</v>
-      </c>
-      <c r="D35" t="n">
-        <v>215.3939976830282</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3320,7 +3320,7 @@
         <v>189.7190331592112</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3348,25 +3348,25 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>79.26862298105107</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
@@ -3402,13 +3402,13 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>95.60580665331359</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>215.3939976830282</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3430,7 +3430,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3500,14 +3500,14 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
         <v>215.3939976830282</v>
       </c>
-      <c r="C38" t="n">
-        <v>215.3939976830282</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
@@ -3521,7 +3521,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>29.85921600351671</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3557,19 +3557,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>179.7283339446665</v>
+      </c>
+      <c r="X38" t="n">
         <v>215.3939976830282</v>
       </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0</v>
-      </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
     </row>
     <row r="39">
@@ -3582,13 +3582,13 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>162.5393852224019</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3627,10 +3627,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>33.26513104358013</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
@@ -3639,7 +3639,7 @@
         <v>215.3939976830282</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -3661,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3715,7 +3715,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>213.4242636173429</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3746,67 +3746,67 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>187.9840913941556</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
         <v>213.4242636173429</v>
       </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T41" t="n">
+      <c r="Y41" t="n">
         <v>213.4242636173429</v>
-      </c>
-      <c r="U41" t="n">
-        <v>182.3975862107084</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3816,10 +3816,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3864,28 +3864,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>22.92687081970527</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>213.4242636173429</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>213.4242636173429</v>
+        <v>84.19310302035325</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3946,10 +3946,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14.11961254265382</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C8" t="n">
-        <v>14.11961254265382</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D8" t="n">
-        <v>14.11961254265382</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E8" t="n">
-        <v>14.11961254265382</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F8" t="n">
-        <v>14.11961254265382</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G8" t="n">
-        <v>14.11961254265382</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H8" t="n">
-        <v>14.11961254265382</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I8" t="n">
-        <v>14.11961254265382</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J8" t="n">
         <v>2.049623295570466</v>
       </c>
       <c r="K8" t="n">
-        <v>2.049623295570466</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="L8" t="n">
-        <v>2.049623295570466</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M8" t="n">
         <v>27.41371157825499</v>
       </c>
       <c r="N8" t="n">
-        <v>52.77779986093951</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="O8" t="n">
         <v>77.1170764958388</v>
@@ -4823,31 +4823,31 @@
         <v>102.4811647785233</v>
       </c>
       <c r="Q8" t="n">
-        <v>92.38954941029624</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R8" t="n">
-        <v>66.51046739551762</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S8" t="n">
-        <v>40.631385380739</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T8" t="n">
-        <v>14.75230336596039</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U8" t="n">
-        <v>14.75230336596039</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V8" t="n">
-        <v>14.75230336596039</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="W8" t="n">
-        <v>14.75230336596039</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="X8" t="n">
-        <v>14.11961254265382</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="Y8" t="n">
-        <v>14.11961254265382</v>
+        <v>27.92870531034908</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>102.4811647785233</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="C9" t="n">
-        <v>102.4811647785233</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="D9" t="n">
         <v>76.6020827637447</v>
       </c>
       <c r="E9" t="n">
-        <v>50.72300074896609</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="F9" t="n">
-        <v>50.72300074896609</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="G9" t="n">
-        <v>50.72300074896609</v>
+        <v>54.56191997791342</v>
       </c>
       <c r="H9" t="n">
         <v>28.6828379631348</v>
@@ -4887,46 +4887,46 @@
         <v>2.049623295570466</v>
       </c>
       <c r="L9" t="n">
-        <v>2.049623295570466</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M9" t="n">
-        <v>2.049623295570466</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N9" t="n">
-        <v>26.38889993046976</v>
+        <v>78.14188814362403</v>
       </c>
       <c r="O9" t="n">
-        <v>51.75298821315428</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P9" t="n">
-        <v>77.1170764958388</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q9" t="n">
         <v>102.4811647785233</v>
       </c>
       <c r="R9" t="n">
-        <v>102.4811647785233</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="S9" t="n">
-        <v>102.4811647785233</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="T9" t="n">
-        <v>102.4811647785233</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="U9" t="n">
-        <v>102.4811647785233</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="V9" t="n">
-        <v>102.4811647785233</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="W9" t="n">
-        <v>102.4811647785233</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="X9" t="n">
-        <v>102.4811647785233</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="Y9" t="n">
-        <v>102.4811647785233</v>
+        <v>76.6020827637447</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>73.85315272828358</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C10" t="n">
-        <v>73.85315272828358</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D10" t="n">
-        <v>73.85315272828358</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E10" t="n">
-        <v>73.85315272828358</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F10" t="n">
-        <v>73.85315272828358</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G10" t="n">
-        <v>73.85315272828358</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H10" t="n">
-        <v>73.85315272828358</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I10" t="n">
-        <v>50.42314149810954</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J10" t="n">
-        <v>24.54405948333093</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K10" t="n">
         <v>2.049623295570466</v>
@@ -4978,34 +4978,34 @@
         <v>102.4811647785233</v>
       </c>
       <c r="P10" t="n">
-        <v>99.73223474306219</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q10" t="n">
-        <v>73.85315272828358</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="R10" t="n">
-        <v>73.85315272828358</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="S10" t="n">
-        <v>73.85315272828358</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="T10" t="n">
-        <v>73.85315272828358</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="U10" t="n">
-        <v>73.85315272828358</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="V10" t="n">
-        <v>73.85315272828358</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="W10" t="n">
-        <v>73.85315272828358</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="X10" t="n">
-        <v>73.85315272828358</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="Y10" t="n">
-        <v>73.85315272828358</v>
+        <v>2.049623295570466</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.049623295570466</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="C11" t="n">
-        <v>2.049623295570466</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="D11" t="n">
-        <v>2.049623295570466</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="E11" t="n">
-        <v>2.049623295570466</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="F11" t="n">
-        <v>2.049623295570466</v>
+        <v>91.75685858698967</v>
       </c>
       <c r="G11" t="n">
-        <v>2.049623295570466</v>
+        <v>65.87777657221105</v>
       </c>
       <c r="H11" t="n">
-        <v>2.049623295570466</v>
+        <v>39.99869455743244</v>
       </c>
       <c r="I11" t="n">
-        <v>2.049623295570466</v>
+        <v>14.11961254265382</v>
       </c>
       <c r="J11" t="n">
         <v>2.049623295570466</v>
@@ -5045,16 +5045,16 @@
         <v>27.41371157825499</v>
       </c>
       <c r="L11" t="n">
-        <v>52.77779986093951</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="M11" t="n">
-        <v>78.14188814362403</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="N11" t="n">
-        <v>102.4811647785233</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="O11" t="n">
-        <v>102.4811647785233</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="P11" t="n">
         <v>102.4811647785233</v>
@@ -5063,28 +5063,28 @@
         <v>92.38954941029624</v>
       </c>
       <c r="R11" t="n">
-        <v>66.51046739551762</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="S11" t="n">
-        <v>40.631385380739</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="T11" t="n">
-        <v>14.75230336596039</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="U11" t="n">
-        <v>2.049623295570466</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="V11" t="n">
-        <v>2.049623295570466</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="W11" t="n">
-        <v>2.049623295570466</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="X11" t="n">
-        <v>2.049623295570466</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="Y11" t="n">
-        <v>2.049623295570466</v>
+        <v>92.38954941029624</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.80375594835618</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="C12" t="n">
-        <v>2.80375594835618</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="D12" t="n">
-        <v>2.80375594835618</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="E12" t="n">
-        <v>2.80375594835618</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="F12" t="n">
-        <v>2.80375594835618</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="G12" t="n">
-        <v>2.80375594835618</v>
+        <v>54.56191997791342</v>
       </c>
       <c r="H12" t="n">
-        <v>2.80375594835618</v>
+        <v>28.6828379631348</v>
       </c>
       <c r="I12" t="n">
         <v>2.80375594835618</v>
@@ -5124,16 +5124,16 @@
         <v>27.41371157825499</v>
       </c>
       <c r="L12" t="n">
-        <v>52.77779986093951</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M12" t="n">
-        <v>52.77779986093951</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="N12" t="n">
-        <v>52.77779986093951</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="O12" t="n">
-        <v>52.77779986093951</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="P12" t="n">
         <v>77.1170764958388</v>
@@ -5145,25 +5145,25 @@
         <v>76.6020827637447</v>
       </c>
       <c r="S12" t="n">
-        <v>50.72300074896609</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="T12" t="n">
-        <v>24.84391873418747</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="U12" t="n">
-        <v>2.80375594835618</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="V12" t="n">
-        <v>2.80375594835618</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="W12" t="n">
-        <v>2.80375594835618</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="X12" t="n">
-        <v>2.80375594835618</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="Y12" t="n">
-        <v>2.80375594835618</v>
+        <v>76.6020827637447</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>22.09498869872634</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="C13" t="n">
-        <v>22.09498869872634</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="D13" t="n">
-        <v>22.09498869872634</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="E13" t="n">
-        <v>22.09498869872634</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="F13" t="n">
-        <v>22.09498869872634</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="G13" t="n">
-        <v>22.09498869872634</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="H13" t="n">
-        <v>22.09498869872634</v>
+        <v>73.85315272828358</v>
       </c>
       <c r="I13" t="n">
-        <v>22.09498869872634</v>
+        <v>47.97407071350496</v>
       </c>
       <c r="J13" t="n">
         <v>22.09498869872634</v>
@@ -5206,7 +5206,7 @@
         <v>27.41371157825499</v>
       </c>
       <c r="M13" t="n">
-        <v>52.77779986093952</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N13" t="n">
         <v>78.14188814362404</v>
@@ -5218,31 +5218,31 @@
         <v>99.73223474306219</v>
       </c>
       <c r="Q13" t="n">
-        <v>73.85315272828358</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="R13" t="n">
-        <v>47.97407071350496</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="S13" t="n">
-        <v>22.09498869872634</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="T13" t="n">
-        <v>22.09498869872634</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="U13" t="n">
-        <v>22.09498869872634</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="V13" t="n">
-        <v>22.09498869872634</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="W13" t="n">
-        <v>22.09498869872634</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="X13" t="n">
-        <v>22.09498869872634</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="Y13" t="n">
-        <v>22.09498869872634</v>
+        <v>99.73223474306219</v>
       </c>
     </row>
     <row r="14">
@@ -5279,34 +5279,34 @@
         <v>2.049623295570466</v>
       </c>
       <c r="K14" t="n">
-        <v>27.41371157825499</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L14" t="n">
-        <v>52.77779986093951</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="M14" t="n">
-        <v>77.1170764958388</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="N14" t="n">
         <v>77.1170764958388</v>
       </c>
       <c r="O14" t="n">
-        <v>77.1170764958388</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P14" t="n">
         <v>102.4811647785233</v>
       </c>
       <c r="Q14" t="n">
-        <v>92.38954941029624</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R14" t="n">
-        <v>66.51046739551762</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="S14" t="n">
-        <v>40.631385380739</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="T14" t="n">
-        <v>14.75230336596039</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="U14" t="n">
         <v>2.049623295570466</v>
@@ -5379,19 +5379,19 @@
         <v>102.4811647785233</v>
       </c>
       <c r="R15" t="n">
-        <v>76.6020827637447</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S15" t="n">
-        <v>50.72300074896609</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T15" t="n">
-        <v>24.84391873418747</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="U15" t="n">
-        <v>2.049623295570466</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="V15" t="n">
-        <v>2.049623295570466</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="W15" t="n">
         <v>2.049623295570466</v>
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>22.09498869872634</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="C16" t="n">
-        <v>22.09498869872634</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="D16" t="n">
-        <v>22.09498869872634</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="E16" t="n">
-        <v>22.09498869872634</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="F16" t="n">
-        <v>22.09498869872634</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="G16" t="n">
-        <v>22.09498869872634</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="H16" t="n">
-        <v>22.09498869872634</v>
+        <v>76.30222351288816</v>
       </c>
       <c r="I16" t="n">
-        <v>22.09498869872634</v>
+        <v>50.42314149810954</v>
       </c>
       <c r="J16" t="n">
-        <v>22.09498869872634</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="K16" t="n">
         <v>2.049623295570466</v>
@@ -5455,31 +5455,31 @@
         <v>99.73223474306219</v>
       </c>
       <c r="Q16" t="n">
-        <v>73.85315272828358</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="R16" t="n">
-        <v>47.97407071350496</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="S16" t="n">
-        <v>22.09498869872634</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="T16" t="n">
-        <v>22.09498869872634</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="U16" t="n">
-        <v>22.09498869872634</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="V16" t="n">
-        <v>22.09498869872634</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="W16" t="n">
-        <v>22.09498869872634</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="X16" t="n">
-        <v>22.09498869872634</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="Y16" t="n">
-        <v>22.09498869872634</v>
+        <v>99.73223474306219</v>
       </c>
     </row>
     <row r="17">
@@ -5519,13 +5519,13 @@
         <v>29.52132702853827</v>
       </c>
       <c r="L17" t="n">
-        <v>56.83545203625125</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M17" t="n">
-        <v>83.04597603355158</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="N17" t="n">
-        <v>83.04597603355158</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="O17" t="n">
         <v>83.04597603355158</v>
@@ -5598,16 +5598,16 @@
         <v>2.207202020825291</v>
       </c>
       <c r="L18" t="n">
-        <v>29.52132702853827</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="M18" t="n">
         <v>55.73185102583861</v>
       </c>
       <c r="N18" t="n">
-        <v>55.73185102583861</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="O18" t="n">
-        <v>83.04597603355158</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P18" t="n">
         <v>110.3601010412646</v>
@@ -5616,13 +5616,13 @@
         <v>110.3601010412646</v>
       </c>
       <c r="R18" t="n">
-        <v>82.49138865710684</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S18" t="n">
-        <v>54.62267627294912</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="T18" t="n">
-        <v>30.07591440498301</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="U18" t="n">
         <v>30.07591440498301</v>
@@ -5631,7 +5631,7 @@
         <v>30.07591440498301</v>
       </c>
       <c r="W18" t="n">
-        <v>30.07591440498301</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="X18" t="n">
         <v>2.207202020825291</v>
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>50.00249887508694</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="C19" t="n">
-        <v>22.13378649092923</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D19" t="n">
-        <v>22.13378649092923</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E19" t="n">
-        <v>22.13378649092923</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F19" t="n">
         <v>2.207202020825291</v>
@@ -5689,34 +5689,34 @@
         <v>108.4888536788635</v>
       </c>
       <c r="P19" t="n">
-        <v>105.7399236434024</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="Q19" t="n">
-        <v>77.87121125924466</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="R19" t="n">
-        <v>77.87121125924466</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="S19" t="n">
-        <v>77.87121125924466</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="T19" t="n">
-        <v>77.87121125924466</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="U19" t="n">
-        <v>77.87121125924466</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="V19" t="n">
-        <v>77.87121125924466</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="W19" t="n">
-        <v>77.87121125924466</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="X19" t="n">
-        <v>77.87121125924466</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="Y19" t="n">
-        <v>50.00249887508694</v>
+        <v>30.07591440498301</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>233.7108255783361</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="C20" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H20" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I20" t="n">
         <v>19.28114311021272</v>
@@ -5777,25 +5777,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="V20" t="n">
-        <v>964.0571555106362</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="W20" t="n">
-        <v>720.6083788665362</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="X20" t="n">
-        <v>720.6083788665362</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="Y20" t="n">
-        <v>477.1596022224361</v>
+        <v>718.7806050553886</v>
       </c>
     </row>
     <row r="21">
@@ -5805,49 +5805,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>132.6502787026334</v>
+        <v>588.0815197256143</v>
       </c>
       <c r="C21" t="n">
-        <v>132.6502787026334</v>
+        <v>413.6284904444873</v>
       </c>
       <c r="D21" t="n">
-        <v>132.6502787026334</v>
+        <v>413.6284904444873</v>
       </c>
       <c r="E21" t="n">
-        <v>132.6502787026334</v>
+        <v>413.6284904444873</v>
       </c>
       <c r="F21" t="n">
-        <v>132.6502787026334</v>
+        <v>267.0939324713722</v>
       </c>
       <c r="G21" t="n">
-        <v>132.6502787026334</v>
+        <v>128.3631070539877</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>613.2059550252818</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N21" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O21" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5859,22 +5859,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>839.4747818420872</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>611.2511635784762</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V21" t="n">
-        <v>376.0990553467335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W21" t="n">
-        <v>132.6502787026334</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X21" t="n">
-        <v>132.6502787026334</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y21" t="n">
-        <v>132.6502787026334</v>
+        <v>756.2968567456824</v>
       </c>
     </row>
     <row r="22">
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
         <v>19.28114311021272</v>
@@ -5926,34 +5926,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="C23" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="D23" t="n">
-        <v>720.6083788665362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="E23" t="n">
-        <v>477.1596022224361</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="F23" t="n">
-        <v>233.7108255783361</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
@@ -6023,16 +6023,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V23" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="W23" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="X23" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="Y23" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6042,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>844.3056272106952</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>669.8525979295682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>520.918188268317</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>361.6807332628614</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>361.6807332628614</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
         <v>19.28114311021272</v>
@@ -6081,37 +6081,37 @@
         <v>851.8101010141643</v>
       </c>
       <c r="O24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U24" t="n">
-        <v>964.0571555106362</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="V24" t="n">
-        <v>964.0571555106362</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="W24" t="n">
-        <v>964.0571555106362</v>
+        <v>217.7978866064798</v>
       </c>
       <c r="X24" t="n">
-        <v>964.0571555106362</v>
+        <v>217.7978866064798</v>
       </c>
       <c r="Y24" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L25" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M25" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N25" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="26">
@@ -6245,31 +6245,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U26" t="n">
-        <v>749.627473042513</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V26" t="n">
-        <v>506.1786963984129</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="W26" t="n">
-        <v>262.7299197543128</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="X26" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="Y26" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
     </row>
     <row r="27">
@@ -6279,19 +6279,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>452.9407326573341</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="C27" t="n">
-        <v>452.9407326573341</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="D27" t="n">
-        <v>452.9407326573341</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="E27" t="n">
-        <v>304.5465265007123</v>
+        <v>139.2573793685931</v>
       </c>
       <c r="F27" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
         <v>19.28114311021272</v>
@@ -6309,10 +6309,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>234.810827406191</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N27" t="n">
         <v>473.4149733950735</v>
@@ -6327,28 +6327,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>660.701031422288</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U27" t="n">
-        <v>660.701031422288</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V27" t="n">
-        <v>660.701031422288</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W27" t="n">
-        <v>660.701031422288</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="X27" t="n">
-        <v>660.701031422288</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="Y27" t="n">
-        <v>452.9407326573341</v>
+        <v>298.4948343740486</v>
       </c>
     </row>
     <row r="28">
@@ -6415,10 +6415,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
         <v>19.28114311021272</v>
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>262.7299197543128</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="C29" t="n">
-        <v>262.7299197543128</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="D29" t="n">
         <v>262.7299197543128</v>
@@ -6452,7 +6452,7 @@
         <v>262.7299197543128</v>
       </c>
       <c r="G29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6485,28 +6485,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="U29" t="n">
-        <v>749.627473042513</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="V29" t="n">
-        <v>749.627473042513</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="W29" t="n">
-        <v>506.1786963984129</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="X29" t="n">
-        <v>262.7299197543128</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="Y29" t="n">
-        <v>262.7299197543128</v>
+        <v>343.8760884571613</v>
       </c>
     </row>
     <row r="30">
@@ -6516,49 +6516,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>102.8099852548154</v>
+        <v>342.668582052591</v>
       </c>
       <c r="C30" t="n">
-        <v>102.8099852548154</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D30" t="n">
-        <v>102.8099852548154</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>102.8099852548154</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>102.8099852548154</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>102.8099852548154</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>102.8099852548154</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>542.809531908403</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N30" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6567,25 +6567,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T30" t="n">
-        <v>761.8705608694022</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U30" t="n">
-        <v>761.8705608694022</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V30" t="n">
-        <v>761.8705608694022</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W30" t="n">
-        <v>518.4217842253022</v>
+        <v>550.5200822581238</v>
       </c>
       <c r="X30" t="n">
-        <v>310.5702840197694</v>
+        <v>342.668582052591</v>
       </c>
       <c r="Y30" t="n">
-        <v>102.8099852548154</v>
+        <v>342.668582052591</v>
       </c>
     </row>
     <row r="31">
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F31" t="n">
         <v>19.28114311021272</v>
@@ -6637,34 +6637,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="32">
@@ -6677,16 +6677,16 @@
         <v>234.8012144439637</v>
       </c>
       <c r="C32" t="n">
-        <v>234.8012144439637</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="D32" t="n">
-        <v>234.8012144439637</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="E32" t="n">
-        <v>234.8012144439637</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="F32" t="n">
-        <v>234.8012144439637</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="G32" t="n">
         <v>17.23151981464226</v>
@@ -6701,10 +6701,10 @@
         <v>17.23151981464226</v>
       </c>
       <c r="K32" t="n">
-        <v>23.55055379931807</v>
+        <v>120.2465257255646</v>
       </c>
       <c r="L32" t="n">
-        <v>203.6264053839766</v>
+        <v>300.3223773102232</v>
       </c>
       <c r="M32" t="n">
         <v>416.8664630901746</v>
@@ -6719,31 +6719,31 @@
         <v>861.5759907321129</v>
       </c>
       <c r="Q32" t="n">
-        <v>851.4843753638859</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R32" t="n">
-        <v>851.4843753638859</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="S32" t="n">
-        <v>851.4843753638859</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="T32" t="n">
-        <v>851.4843753638859</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="U32" t="n">
-        <v>851.4843753638859</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="V32" t="n">
-        <v>851.4843753638859</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="W32" t="n">
+        <v>861.5759907321129</v>
+      </c>
+      <c r="X32" t="n">
         <v>669.9406037026066</v>
       </c>
-      <c r="X32" t="n">
+      <c r="Y32" t="n">
         <v>452.3709090732851</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>234.8012144439637</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>26.2079024910708</v>
+        <v>192.438681748555</v>
       </c>
       <c r="C33" t="n">
-        <v>26.2079024910708</v>
+        <v>17.98565246742797</v>
       </c>
       <c r="D33" t="n">
-        <v>26.2079024910708</v>
+        <v>17.98565246742797</v>
       </c>
       <c r="E33" t="n">
-        <v>26.2079024910708</v>
+        <v>17.98565246742797</v>
       </c>
       <c r="F33" t="n">
-        <v>26.2079024910708</v>
+        <v>17.98565246742797</v>
       </c>
       <c r="G33" t="n">
-        <v>26.2079024910708</v>
+        <v>17.98565246742797</v>
       </c>
       <c r="H33" t="n">
-        <v>26.2079024910708</v>
+        <v>17.98565246742797</v>
       </c>
       <c r="I33" t="n">
-        <v>17.23151981464226</v>
+        <v>17.98565246742797</v>
       </c>
       <c r="J33" t="n">
         <v>17.23151981464226</v>
@@ -6786,10 +6786,10 @@
         <v>17.23151981464226</v>
       </c>
       <c r="M33" t="n">
-        <v>183.0578391930369</v>
+        <v>230.4715775208402</v>
       </c>
       <c r="N33" t="n">
-        <v>396.2978968992348</v>
+        <v>443.7116352270382</v>
       </c>
       <c r="O33" t="n">
         <v>609.5379546054328</v>
@@ -6807,22 +6807,22 @@
         <v>861.5759907321129</v>
       </c>
       <c r="T33" t="n">
-        <v>659.389396090879</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="U33" t="n">
-        <v>659.389396090879</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="V33" t="n">
-        <v>659.389396090879</v>
+        <v>776.2658177391097</v>
       </c>
       <c r="W33" t="n">
-        <v>441.8197014615575</v>
+        <v>776.2658177391097</v>
       </c>
       <c r="X33" t="n">
-        <v>233.9682012560247</v>
+        <v>568.4143175335769</v>
       </c>
       <c r="Y33" t="n">
-        <v>26.2079024910708</v>
+        <v>360.654018768623</v>
       </c>
     </row>
     <row r="34">
@@ -6886,22 +6886,22 @@
         <v>861.5759907321129</v>
       </c>
       <c r="T34" t="n">
-        <v>861.5759907321129</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="U34" t="n">
-        <v>861.5759907321129</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="V34" t="n">
-        <v>861.5759907321129</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="W34" t="n">
-        <v>861.5759907321129</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="X34" t="n">
-        <v>861.5759907321129</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="Y34" t="n">
-        <v>861.5759907321129</v>
+        <v>727.0437002418422</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>669.9406037026066</v>
+        <v>452.3709090732851</v>
       </c>
       <c r="C35" t="n">
         <v>452.3709090732851</v>
       </c>
       <c r="D35" t="n">
-        <v>234.8012144439637</v>
+        <v>452.3709090732851</v>
       </c>
       <c r="E35" t="n">
         <v>234.8012144439637</v>
@@ -6938,10 +6938,10 @@
         <v>17.23151981464226</v>
       </c>
       <c r="K35" t="n">
-        <v>23.55055379931807</v>
+        <v>120.2465257255646</v>
       </c>
       <c r="L35" t="n">
-        <v>203.6264053839766</v>
+        <v>300.3223773102232</v>
       </c>
       <c r="M35" t="n">
         <v>416.8664630901746</v>
@@ -6968,19 +6968,19 @@
         <v>669.9406037026066</v>
       </c>
       <c r="U35" t="n">
-        <v>669.9406037026066</v>
+        <v>452.3709090732851</v>
       </c>
       <c r="V35" t="n">
-        <v>669.9406037026066</v>
+        <v>452.3709090732851</v>
       </c>
       <c r="W35" t="n">
-        <v>669.9406037026066</v>
+        <v>452.3709090732851</v>
       </c>
       <c r="X35" t="n">
-        <v>669.9406037026066</v>
+        <v>452.3709090732851</v>
       </c>
       <c r="Y35" t="n">
-        <v>669.9406037026066</v>
+        <v>452.3709090732851</v>
       </c>
     </row>
     <row r="36">
@@ -6990,46 +6990,46 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.1659294758935</v>
+        <v>586.9891167356675</v>
       </c>
       <c r="C36" t="n">
-        <v>166.1659294758935</v>
+        <v>586.9891167356675</v>
       </c>
       <c r="D36" t="n">
-        <v>17.23151981464226</v>
+        <v>586.9891167356675</v>
       </c>
       <c r="E36" t="n">
-        <v>17.23151981464226</v>
+        <v>506.9198005931917</v>
       </c>
       <c r="F36" t="n">
-        <v>17.23151981464226</v>
+        <v>360.3852426200767</v>
       </c>
       <c r="G36" t="n">
-        <v>17.23151981464226</v>
+        <v>221.6544172026922</v>
       </c>
       <c r="H36" t="n">
-        <v>17.23151981464226</v>
+        <v>108.2852816102715</v>
       </c>
       <c r="I36" t="n">
-        <v>17.23151981464226</v>
+        <v>17.98565246742797</v>
       </c>
       <c r="J36" t="n">
         <v>17.23151981464226</v>
       </c>
       <c r="K36" t="n">
-        <v>142.5890798724797</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="L36" t="n">
-        <v>355.8291375786776</v>
+        <v>183.0578391930369</v>
       </c>
       <c r="M36" t="n">
-        <v>569.0691952848756</v>
+        <v>183.0578391930369</v>
       </c>
       <c r="N36" t="n">
-        <v>782.3092529910735</v>
+        <v>396.2978968992348</v>
       </c>
       <c r="O36" t="n">
-        <v>792.1814322187836</v>
+        <v>609.5379546054328</v>
       </c>
       <c r="P36" t="n">
         <v>792.1814322187836</v>
@@ -7038,28 +7038,28 @@
         <v>861.5759907321129</v>
       </c>
       <c r="R36" t="n">
-        <v>861.5759907321129</v>
+        <v>760.4064612849986</v>
       </c>
       <c r="S36" t="n">
-        <v>688.1586461827818</v>
+        <v>586.9891167356675</v>
       </c>
       <c r="T36" t="n">
-        <v>688.1586461827818</v>
+        <v>586.9891167356675</v>
       </c>
       <c r="U36" t="n">
-        <v>688.1586461827818</v>
+        <v>586.9891167356675</v>
       </c>
       <c r="V36" t="n">
-        <v>591.5871243107479</v>
+        <v>586.9891167356675</v>
       </c>
       <c r="W36" t="n">
-        <v>374.0174296814264</v>
+        <v>586.9891167356675</v>
       </c>
       <c r="X36" t="n">
-        <v>166.1659294758935</v>
+        <v>586.9891167356675</v>
       </c>
       <c r="Y36" t="n">
-        <v>166.1659294758935</v>
+        <v>586.9891167356675</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>17.23151981464226</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="C37" t="n">
-        <v>17.23151981464226</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="D37" t="n">
-        <v>17.23151981464226</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="E37" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="F37" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="G37" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="H37" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="I37" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="J37" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="K37" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="L37" t="n">
-        <v>44.54564482235524</v>
+        <v>754.3578252495552</v>
       </c>
       <c r="M37" t="n">
-        <v>83.73368301457742</v>
+        <v>793.5458634417773</v>
       </c>
       <c r="N37" t="n">
-        <v>127.4245336700137</v>
+        <v>837.2367140972136</v>
       </c>
       <c r="O37" t="n">
-        <v>151.763810304913</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="P37" t="n">
-        <v>151.763810304913</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q37" t="n">
-        <v>151.763810304913</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R37" t="n">
-        <v>151.763810304913</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="S37" t="n">
-        <v>17.23151981464226</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="T37" t="n">
-        <v>17.23151981464226</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="U37" t="n">
-        <v>17.23151981464226</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="V37" t="n">
-        <v>17.23151981464226</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="W37" t="n">
-        <v>17.23151981464226</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="X37" t="n">
-        <v>17.23151981464226</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Y37" t="n">
-        <v>17.23151981464226</v>
+        <v>861.5759907321129</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>264.9620386899402</v>
+        <v>234.8012144439637</v>
       </c>
       <c r="C38" t="n">
-        <v>47.39234406061874</v>
+        <v>234.8012144439637</v>
       </c>
       <c r="D38" t="n">
-        <v>47.39234406061874</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="E38" t="n">
-        <v>47.39234406061874</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="F38" t="n">
-        <v>47.39234406061874</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="G38" t="n">
-        <v>47.39234406061874</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="H38" t="n">
-        <v>47.39234406061874</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="I38" t="n">
         <v>17.23151981464226</v>
@@ -7181,13 +7181,13 @@
         <v>300.3223773102232</v>
       </c>
       <c r="M38" t="n">
-        <v>513.5624350164212</v>
+        <v>506.5265183822256</v>
       </c>
       <c r="N38" t="n">
-        <v>622.7209852974139</v>
+        <v>712.3810405894649</v>
       </c>
       <c r="O38" t="n">
-        <v>771.915935440062</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="P38" t="n">
         <v>861.5759907321129</v>
@@ -7196,28 +7196,28 @@
         <v>851.4843753638859</v>
       </c>
       <c r="R38" t="n">
-        <v>700.1014279485831</v>
+        <v>851.4843753638859</v>
       </c>
       <c r="S38" t="n">
-        <v>700.1014279485831</v>
+        <v>851.4843753638859</v>
       </c>
       <c r="T38" t="n">
-        <v>700.1014279485831</v>
+        <v>851.4843753638859</v>
       </c>
       <c r="U38" t="n">
-        <v>482.5317333192617</v>
+        <v>851.4843753638859</v>
       </c>
       <c r="V38" t="n">
-        <v>482.5317333192617</v>
+        <v>851.4843753638859</v>
       </c>
       <c r="W38" t="n">
-        <v>482.5317333192617</v>
+        <v>669.9406037026066</v>
       </c>
       <c r="X38" t="n">
-        <v>482.5317333192617</v>
+        <v>452.3709090732851</v>
       </c>
       <c r="Y38" t="n">
-        <v>482.5317333192617</v>
+        <v>234.8012144439637</v>
       </c>
     </row>
     <row r="39">
@@ -7227,13 +7227,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>340.6501720144431</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="C39" t="n">
-        <v>176.4689748200978</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="D39" t="n">
-        <v>176.4689748200978</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="E39" t="n">
         <v>17.23151981464226</v>
@@ -7254,13 +7254,13 @@
         <v>17.23151981464226</v>
       </c>
       <c r="K39" t="n">
-        <v>142.5890798724797</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="L39" t="n">
-        <v>252.4523977063661</v>
+        <v>230.4715775208402</v>
       </c>
       <c r="M39" t="n">
-        <v>252.4523977063661</v>
+        <v>443.7116352270382</v>
       </c>
       <c r="N39" t="n">
         <v>465.6924554125641</v>
@@ -7275,28 +7275,28 @@
         <v>861.5759907321129</v>
       </c>
       <c r="R39" t="n">
-        <v>760.4064612849986</v>
+        <v>827.9748482638502</v>
       </c>
       <c r="S39" t="n">
-        <v>760.4064612849986</v>
+        <v>654.557503714519</v>
       </c>
       <c r="T39" t="n">
-        <v>558.2198666437646</v>
+        <v>452.3709090732851</v>
       </c>
       <c r="U39" t="n">
-        <v>340.6501720144431</v>
+        <v>234.8012144439637</v>
       </c>
       <c r="V39" t="n">
-        <v>340.6501720144431</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="W39" t="n">
-        <v>340.6501720144431</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="X39" t="n">
-        <v>340.6501720144431</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="Y39" t="n">
-        <v>340.6501720144431</v>
+        <v>17.23151981464226</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>17.23151981464226</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="C40" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="D40" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="E40" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="F40" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="G40" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="H40" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="I40" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="J40" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="K40" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="L40" t="n">
-        <v>44.54564482235524</v>
+        <v>754.3578252495552</v>
       </c>
       <c r="M40" t="n">
-        <v>83.73368301457742</v>
+        <v>793.5458634417773</v>
       </c>
       <c r="N40" t="n">
-        <v>127.4245336700137</v>
+        <v>837.2367140972136</v>
       </c>
       <c r="O40" t="n">
-        <v>151.763810304913</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="P40" t="n">
-        <v>151.763810304913</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q40" t="n">
-        <v>151.763810304913</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R40" t="n">
-        <v>151.763810304913</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="S40" t="n">
-        <v>151.763810304913</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="T40" t="n">
-        <v>151.763810304913</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="U40" t="n">
-        <v>17.23151981464226</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="V40" t="n">
-        <v>17.23151981464226</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="W40" t="n">
-        <v>17.23151981464226</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="X40" t="n">
-        <v>17.23151981464226</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Y40" t="n">
-        <v>17.23151981464226</v>
+        <v>861.5759907321129</v>
       </c>
     </row>
     <row r="41">
@@ -7385,16 +7385,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>232.6540053493298</v>
+        <v>206.9568616895446</v>
       </c>
       <c r="C41" t="n">
-        <v>232.6540053493298</v>
+        <v>206.9568616895446</v>
       </c>
       <c r="D41" t="n">
-        <v>232.6540053493298</v>
+        <v>206.9568616895446</v>
       </c>
       <c r="E41" t="n">
-        <v>17.07394108938743</v>
+        <v>206.9568616895446</v>
       </c>
       <c r="F41" t="n">
         <v>17.07394108938743</v>
@@ -7430,31 +7430,31 @@
         <v>853.6970544693717</v>
       </c>
       <c r="Q41" t="n">
-        <v>843.6054391011446</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="R41" t="n">
-        <v>843.6054391011446</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="S41" t="n">
-        <v>632.4740556806947</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="T41" t="n">
-        <v>416.8939914207524</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="U41" t="n">
-        <v>232.6540053493298</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="V41" t="n">
-        <v>232.6540053493298</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="W41" t="n">
-        <v>232.6540053493298</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="X41" t="n">
-        <v>232.6540053493298</v>
+        <v>638.1169902094293</v>
       </c>
       <c r="Y41" t="n">
-        <v>232.6540053493298</v>
+        <v>422.536925949487</v>
       </c>
     </row>
     <row r="42">
@@ -7464,7 +7464,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>191.5269703705144</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="C42" t="n">
         <v>17.07394108938743</v>
@@ -7491,49 +7491,49 @@
         <v>17.07394108938743</v>
       </c>
       <c r="K42" t="n">
-        <v>142.4315011472248</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="L42" t="n">
-        <v>142.4315011472248</v>
+        <v>228.3639620705569</v>
       </c>
       <c r="M42" t="n">
-        <v>179.0789763803525</v>
+        <v>439.6539830517264</v>
       </c>
       <c r="N42" t="n">
-        <v>390.368997361522</v>
+        <v>459.7635558748512</v>
       </c>
       <c r="O42" t="n">
-        <v>601.6590183426915</v>
+        <v>671.0535768560208</v>
       </c>
       <c r="P42" t="n">
-        <v>784.3024959560423</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="Q42" t="n">
         <v>853.6970544693717</v>
       </c>
       <c r="R42" t="n">
-        <v>830.538599095932</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="S42" t="n">
-        <v>830.538599095932</v>
+        <v>680.2797099200405</v>
       </c>
       <c r="T42" t="n">
-        <v>830.538599095932</v>
+        <v>478.0931152788066</v>
       </c>
       <c r="U42" t="n">
-        <v>614.9585348359897</v>
+        <v>478.0931152788066</v>
       </c>
       <c r="V42" t="n">
-        <v>614.9585348359897</v>
+        <v>478.0931152788066</v>
       </c>
       <c r="W42" t="n">
-        <v>399.3784705760473</v>
+        <v>393.0495768744094</v>
       </c>
       <c r="X42" t="n">
-        <v>191.5269703705144</v>
+        <v>393.0495768744094</v>
       </c>
       <c r="Y42" t="n">
-        <v>191.5269703705144</v>
+        <v>185.2892781094555</v>
       </c>
     </row>
     <row r="43">
@@ -7594,7 +7594,7 @@
         <v>151.6062315796582</v>
       </c>
       <c r="S43" t="n">
-        <v>151.6062315796582</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="T43" t="n">
         <v>17.07394108938743</v>
@@ -8453,19 +8453,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>245.7101422396114</v>
       </c>
       <c r="L8" t="n">
         <v>235.7664149699872</v>
       </c>
       <c r="M8" t="n">
-        <v>255.9665244219036</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N8" t="n">
-        <v>255.0333547912217</v>
+        <v>253.9981915106306</v>
       </c>
       <c r="O8" t="n">
-        <v>254.6833393357264</v>
+        <v>255.7185026163176</v>
       </c>
       <c r="P8" t="n">
         <v>256.8532869499004</v>
@@ -8535,22 +8535,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>164.174670974505</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>167.7543251166491</v>
       </c>
       <c r="N9" t="n">
-        <v>155.926839997373</v>
+        <v>156.9620032779641</v>
       </c>
       <c r="O9" t="n">
-        <v>168.2165356390753</v>
+        <v>167.1813723584841</v>
       </c>
       <c r="P9" t="n">
-        <v>159.5946986089611</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>165.6020652806523</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8693,19 +8693,19 @@
         <v>245.7101422396114</v>
       </c>
       <c r="L11" t="n">
-        <v>261.3867061646181</v>
+        <v>260.3515428840269</v>
       </c>
       <c r="M11" t="n">
-        <v>255.9665244219036</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N11" t="n">
-        <v>253.9981915106306</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O11" t="n">
-        <v>230.0982114216867</v>
+        <v>255.7185026163176</v>
       </c>
       <c r="P11" t="n">
-        <v>231.2329957552695</v>
+        <v>256.8532869499004</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8772,10 +8772,10 @@
         <v>163.4617301689898</v>
       </c>
       <c r="L12" t="n">
-        <v>164.174670974505</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>166.719161836058</v>
       </c>
       <c r="N12" t="n">
         <v>131.3417120833333</v>
@@ -8784,7 +8784,7 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>158.5595353283699</v>
+        <v>159.5946986089611</v>
       </c>
       <c r="Q12" t="n">
         <v>165.6020652806523</v>
@@ -8927,22 +8927,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>245.7101422396114</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L14" t="n">
-        <v>261.3867061646181</v>
+        <v>260.3515428840269</v>
       </c>
       <c r="M14" t="n">
-        <v>254.9313611413124</v>
+        <v>255.9665244219036</v>
       </c>
       <c r="N14" t="n">
-        <v>229.4130635965909</v>
+        <v>255.0333547912217</v>
       </c>
       <c r="O14" t="n">
-        <v>230.0982114216867</v>
+        <v>255.7185026163176</v>
       </c>
       <c r="P14" t="n">
-        <v>256.8532869499004</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9167,16 +9167,16 @@
         <v>247.6798763052967</v>
       </c>
       <c r="L17" t="n">
-        <v>263.3564402303034</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M17" t="n">
-        <v>256.8215099922226</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N17" t="n">
-        <v>229.4130635965909</v>
+        <v>255.8883403615408</v>
       </c>
       <c r="O17" t="n">
-        <v>230.0982114216867</v>
+        <v>257.6882366820029</v>
       </c>
       <c r="P17" t="n">
         <v>258.8230210155857</v>
@@ -9246,19 +9246,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>166.1444050401903</v>
+        <v>165.029656544824</v>
       </c>
       <c r="M18" t="n">
-        <v>168.6093106869682</v>
+        <v>169.7240591823345</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>158.9317373436494</v>
       </c>
       <c r="O18" t="n">
         <v>170.1862697047606</v>
       </c>
       <c r="P18" t="n">
-        <v>161.5644326746464</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -9480,25 +9480,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9729,13 +9729,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>185.8815939223662</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9875,7 +9875,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9957,13 +9957,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>233.2169876979182</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
@@ -10115,7 +10115,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10191,25 +10191,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>312.04082470182</v>
+        <v>312.0431814381598</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10349,13 +10349,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>226.4727136557642</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>445.740230910301</v>
+        <v>348.0675319949004</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10434,13 +10434,13 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>309.6353666274674</v>
+        <v>357.5280316050465</v>
       </c>
       <c r="N33" t="n">
         <v>346.7357097663615</v>
       </c>
       <c r="O33" t="n">
-        <v>357.9902421274727</v>
+        <v>310.0975771498935</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10586,13 +10586,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>226.4727136557642</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>445.740230910301</v>
+        <v>348.0675319949004</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10665,22 +10665,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>353.9483774629024</v>
+        <v>306.0557124853233</v>
       </c>
       <c r="M36" t="n">
-        <v>357.5280316050465</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>346.7357097663615</v>
       </c>
       <c r="O36" t="n">
-        <v>152.5681426542525</v>
+        <v>357.9902421274727</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10829,16 +10829,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>445.740230910301</v>
+        <v>438.6332444111135</v>
       </c>
       <c r="N38" t="n">
-        <v>339.6742254965835</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10902,16 +10902,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>249.5274280969312</v>
+        <v>353.9483774629024</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>357.5280316050465</v>
       </c>
       <c r="N39" t="n">
-        <v>346.7357097663615</v>
+        <v>153.5445607555817</v>
       </c>
       <c r="O39" t="n">
         <v>357.9902421274727</v>
@@ -11139,16 +11139,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>351.9786433972171</v>
       </c>
       <c r="M42" t="n">
-        <v>179.1516856726524</v>
+        <v>355.5582975393612</v>
       </c>
       <c r="N42" t="n">
-        <v>344.7659757006762</v>
+        <v>151.6544119046715</v>
       </c>
       <c r="O42" t="n">
         <v>356.0205080617874</v>
@@ -11157,7 +11157,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -23018,7 +23018,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>357.1135504688497</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23042,7 +23042,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23063,16 +23063,16 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>124.2488267465189</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>183.3997783916145</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>197.4755583695005</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -23081,13 +23081,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>326.6746162331822</v>
       </c>
       <c r="X8" t="n">
-        <v>369.1047367633955</v>
+        <v>344.1108094838382</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>360.6176474614227</v>
       </c>
     </row>
     <row r="9">
@@ -23103,19 +23103,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>121.8247743700079</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>132.0247892607701</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>115.5237560052377</v>
       </c>
       <c r="H9" t="n">
-        <v>90.41568307852349</v>
+        <v>86.61515304186563</v>
       </c>
       <c r="I9" t="n">
         <v>63.77634165678425</v>
@@ -23145,7 +23145,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>74.5375429580123</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -23197,13 +23197,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>132.254763809386</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>67.73888892204195</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23218,19 +23218,19 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>60.54175205706355</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>151.6731001825387</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>198.3963068423414</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>205.3792369440507</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
@@ -23267,19 +23267,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.2496818266379</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>389.6824463205042</v>
       </c>
       <c r="H11" t="n">
-        <v>339.4748021157671</v>
+        <v>313.8545109211363</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>184.8555983757751</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23303,16 +23303,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>124.2488267465189</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>183.3997783916145</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>197.4755583695005</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>238.7699996381505</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23349,13 +23349,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>115.5237560052377</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>86.61515304186563</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>63.77634165678425</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23385,13 +23385,13 @@
         <v>74.5375429580123</v>
       </c>
       <c r="S12" t="n">
-        <v>146.062879909207</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>174.5444375001908</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>204.1216209230018</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -23431,13 +23431,13 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H13" t="n">
-        <v>162.2271725074396</v>
+        <v>136.6068813128088</v>
       </c>
       <c r="I13" t="n">
-        <v>155.4504749272583</v>
+        <v>129.8301837326275</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>67.73888892204195</v>
       </c>
       <c r="K13" t="n">
         <v>2.424580076758538</v>
@@ -23458,13 +23458,13 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>60.54175205706355</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>151.6731001825387</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
-        <v>198.3963068423414</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T13" t="n">
         <v>227.9455894282815</v>
@@ -23537,10 +23537,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>124.2488267465189</v>
+        <v>127.3027654569188</v>
       </c>
       <c r="S14" t="n">
         <v>183.3997783916145</v>
@@ -23549,7 +23549,7 @@
         <v>197.4755583695005</v>
       </c>
       <c r="U14" t="n">
-        <v>238.7699996381505</v>
+        <v>225.7253617132057</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23619,22 +23619,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>74.5375429580123</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>146.062879909207</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>174.5444375001908</v>
+        <v>177.5983762105908</v>
       </c>
       <c r="U15" t="n">
-        <v>203.375029596744</v>
+        <v>200.321090886344</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>207.1802959547944</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>226.0746919662888</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23668,16 +23668,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H16" t="n">
-        <v>162.2271725074396</v>
+        <v>139.0314613895673</v>
       </c>
       <c r="I16" t="n">
-        <v>155.4504749272583</v>
+        <v>129.8301837326275</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>67.73888892204195</v>
       </c>
       <c r="K16" t="n">
-        <v>2.424580076758538</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23695,13 +23695,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>60.54175205706355</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>151.6731001825387</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
-        <v>198.3963068423414</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T16" t="n">
         <v>227.9455894282815</v>
@@ -23856,25 +23856,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>72.56780889232699</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>144.0931458435217</v>
+        <v>147.3818768545514</v>
       </c>
       <c r="T18" t="n">
-        <v>175.8634344455351</v>
+        <v>172.5747034345055</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>198.3513568206587</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>224.1049579006035</v>
       </c>
       <c r="X18" t="n">
-        <v>178.1829599431613</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23899,7 +23899,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>125.6937293975284</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>167.9909793584588</v>
@@ -23929,10 +23929,10 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>58.57201799137825</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
         <v>177.2933913771695</v>
@@ -23941,13 +23941,13 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>227.9455894282815</v>
+        <v>205.4968300677721</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3190293564909</v>
+        <v>258.7290040961748</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>224.5476180635119</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23956,7 +23956,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>190.9946280917787</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23969,7 +23969,7 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C20" t="n">
-        <v>152.9875061275654</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23981,13 +23981,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -24017,25 +24017,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>207.2105735132092</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24045,10 +24045,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24057,19 +24057,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>94.38752410983214</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24099,22 +24099,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>76.82817876295805</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24151,7 +24151,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -24166,13 +24166,13 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24184,7 +24184,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24209,22 +24209,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
-        <v>203.0173518716929</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -24263,7 +24263,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>325.9427623970988</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24282,28 +24282,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>47.97917063292574</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -24330,28 +24330,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>9.151119715999982</v>
       </c>
     </row>
     <row r="25">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>46.6450125965693</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24430,7 +24430,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24440,7 +24440,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>280.3956145707916</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24485,28 +24485,28 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>39.0602672643945</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24528,13 +24528,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>10.73481636034538</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>26.29273849758732</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
@@ -24567,7 +24567,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
@@ -24576,10 +24576,10 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>251.6949831609196</v>
@@ -24588,7 +24588,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24655,13 +24655,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24683,7 +24683,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>274.3483346048629</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24692,10 +24692,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24725,28 +24725,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>39.0602672643945</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="30">
@@ -24759,10 +24759,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
@@ -24777,10 +24777,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>7.449670454516252</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24807,10 +24807,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
@@ -24819,13 +24819,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>13.97645174477015</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24847,7 +24847,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G31" t="n">
         <v>167.9909793584588</v>
@@ -24877,13 +24877,13 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>46.82786452690794</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
@@ -24914,10 +24914,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>167.3398439804523</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>149.8788940879793</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24929,7 +24929,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>199.9087398321068</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
@@ -24959,7 +24959,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
@@ -24977,10 +24977,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>169.5126347727465</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>154.3371029954408</v>
+        <v>180.0120675192578</v>
       </c>
       <c r="Y32" t="n">
         <v>170.8439409730254</v>
@@ -24993,10 +24993,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -25014,10 +25014,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>80.51001400175082</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25047,16 +25047,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>148.3435158863521</v>
       </c>
       <c r="W33" t="n">
-        <v>36.30098547789137</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.6450125965693</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25126,7 +25126,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U34" t="n">
         <v>286.3190293564909</v>
@@ -25154,13 +25154,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>149.8788940879793</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>139.2890439376547</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>166.5363723892335</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -25208,7 +25208,7 @@
         <v>33.37681640492011</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>35.95165522480826</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25236,25 +25236,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>78.37645747434988</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25278,7 +25278,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -25290,13 +25290,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>137.1947804961117</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>36.30098547789137</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25318,7 +25318,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120118</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25360,7 +25360,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
         <v>227.9455894282815</v>
@@ -25388,13 +25388,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>167.3398439804523</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>149.8788940879793</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>139.2890439376547</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25409,7 +25409,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>180.6166735668892</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -25436,7 +25436,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
         <v>209.0200695862453</v>
@@ -25445,19 +25445,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>35.95165522480826</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>169.5126347727465</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>154.3371029954408</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>170.8439409730254</v>
       </c>
     </row>
     <row r="39">
@@ -25470,13 +25470,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>10.16911376591386</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -25515,10 +25515,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>66.89270310906301</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -25527,7 +25527,7 @@
         <v>10.54738439794659</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>17.40658946639704</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
@@ -25549,7 +25549,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325984</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25603,7 +25603,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25625,7 +25625,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>169.3095780461377</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25634,10 +25634,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>168.5061064549189</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>218.8919543475558</v>
       </c>
       <c r="G41" t="n">
         <v>415.302737515135</v>
@@ -25670,19 +25670,19 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>9.67158594678844</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>68.94806669712813</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25691,10 +25691,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>156.3068370611261</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>172.8136750387107</v>
       </c>
     </row>
     <row r="42">
@@ -25704,10 +25704,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25752,28 +25752,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>77.23096333293786</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>12.5171184636319</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>38.27071954357669</v>
+        <v>167.5018801405664</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25834,10 +25834,10 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T43" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
         <v>286.3190293564909</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>350035.0587549795</v>
+        <v>350035.0587549793</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>350035.0587549795</v>
+        <v>350035.0587549793</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>506790.0512205641</v>
+        <v>506790.0512205642</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>506790.0512205642</v>
+        <v>506790.0512205641</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>506790.0512205642</v>
+        <v>506790.0512205639</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>506790.0512205642</v>
+        <v>506790.0512205641</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>488291.61581059</v>
+        <v>488291.6158105898</v>
       </c>
     </row>
     <row r="13">
@@ -26320,37 +26320,37 @@
         <v>51644.51686548872</v>
       </c>
       <c r="E2" t="n">
-        <v>51644.51686548873</v>
+        <v>51644.51686548874</v>
       </c>
       <c r="F2" t="n">
         <v>51644.51686548873</v>
       </c>
       <c r="G2" t="n">
-        <v>51885.6233062447</v>
+        <v>51885.62330624471</v>
       </c>
       <c r="H2" t="n">
-        <v>74772.30263909959</v>
+        <v>74772.30263909957</v>
       </c>
       <c r="I2" t="n">
-        <v>74772.30263909959</v>
+        <v>74772.30263909958</v>
       </c>
       <c r="J2" t="n">
         <v>74772.30263909958</v>
       </c>
       <c r="K2" t="n">
-        <v>74772.30263909958</v>
+        <v>74772.30263909957</v>
       </c>
       <c r="L2" t="n">
         <v>72043.0252835296</v>
       </c>
       <c r="M2" t="n">
+        <v>72043.0252835296</v>
+      </c>
+      <c r="N2" t="n">
         <v>72043.02528352961</v>
       </c>
-      <c r="N2" t="n">
-        <v>72043.0252835296</v>
-      </c>
       <c r="O2" t="n">
-        <v>71833.1935317696</v>
+        <v>71833.19353176959</v>
       </c>
       <c r="P2" t="n">
         <v>48378.33248915087</v>
@@ -26421,7 +26421,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>22.21667432804715</v>
+        <v>22.21667432804714</v>
       </c>
       <c r="E4" t="n">
         <v>22.21667432804714</v>
@@ -26519,16 +26519,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>14750.73248915087</v>
+        <v>14750.73248915088</v>
       </c>
       <c r="C6" t="n">
         <v>14750.73248915088</v>
       </c>
       <c r="D6" t="n">
-        <v>8478.55543273894</v>
+        <v>8478.555432738947</v>
       </c>
       <c r="E6" t="n">
-        <v>50064.58648652713</v>
+        <v>50064.58648652714</v>
       </c>
       <c r="F6" t="n">
         <v>50064.58648652713</v>
@@ -26537,28 +26537,28 @@
         <v>49644.4185221752</v>
       </c>
       <c r="H6" t="n">
-        <v>2355.314235302274</v>
+        <v>2355.314235302245</v>
       </c>
       <c r="I6" t="n">
-        <v>59939.10137763395</v>
+        <v>59939.10137763394</v>
       </c>
       <c r="J6" t="n">
         <v>59939.10137763394</v>
       </c>
       <c r="K6" t="n">
-        <v>59939.10137763394</v>
+        <v>59939.10137763392</v>
       </c>
       <c r="L6" t="n">
-        <v>58786.10234497163</v>
+        <v>58786.10234497164</v>
       </c>
       <c r="M6" t="n">
         <v>58786.10234497164</v>
       </c>
       <c r="N6" t="n">
-        <v>58786.10234497163</v>
+        <v>58786.10234497165</v>
       </c>
       <c r="O6" t="n">
-        <v>58697.4577056471</v>
+        <v>58697.45770564708</v>
       </c>
       <c r="P6" t="n">
         <v>48378.33248915087</v>
@@ -35173,19 +35173,19 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>24.58512791403969</v>
+      </c>
+      <c r="O8" t="n">
         <v>25.62029119463083</v>
-      </c>
-      <c r="N8" t="n">
-        <v>25.62029119463083</v>
-      </c>
-      <c r="O8" t="n">
-        <v>24.58512791403969</v>
       </c>
       <c r="P8" t="n">
         <v>25.62029119463083</v>
@@ -35255,22 +35255,22 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N9" t="n">
+        <v>25.62029119463083</v>
+      </c>
+      <c r="O9" t="n">
         <v>24.58512791403969</v>
       </c>
-      <c r="O9" t="n">
-        <v>25.62029119463083</v>
-      </c>
       <c r="P9" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35413,19 +35413,19 @@
         <v>25.62029119463083</v>
       </c>
       <c r="L11" t="n">
+        <v>24.58512791403969</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
         <v>25.62029119463083</v>
       </c>
-      <c r="M11" t="n">
+      <c r="P11" t="n">
         <v>25.62029119463083</v>
-      </c>
-      <c r="N11" t="n">
-        <v>24.58512791403969</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35492,19 +35492,19 @@
         <v>25.62029119463083</v>
       </c>
       <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>24.58512791403969</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>25.62029119463083</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>24.58512791403969</v>
       </c>
       <c r="Q12" t="n">
         <v>25.62029119463083</v>
@@ -35574,10 +35574,10 @@
         <v>25.62029119463083</v>
       </c>
       <c r="M13" t="n">
+        <v>25.62029119463083</v>
+      </c>
+      <c r="N13" t="n">
         <v>25.62029119463084</v>
-      </c>
-      <c r="N13" t="n">
-        <v>25.62029119463083</v>
       </c>
       <c r="O13" t="n">
         <v>24.58512791403967</v>
@@ -35647,22 +35647,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>24.58512791403969</v>
+      </c>
+      <c r="M14" t="n">
         <v>25.62029119463083</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>25.62029119463083</v>
       </c>
-      <c r="M14" t="n">
-        <v>24.58512791403969</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="P14" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35887,16 +35887,16 @@
         <v>27.59002526031614</v>
       </c>
       <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>26.47527676494984</v>
+      </c>
+      <c r="O17" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="M17" t="n">
-        <v>26.47527676494983</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>27.59002526031614</v>
@@ -35966,19 +35966,19 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
+        <v>26.47527676494984</v>
+      </c>
+      <c r="M18" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="M18" t="n">
-        <v>26.47527676494984</v>
-      </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O18" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="P18" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36130,7 +36130,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N20" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O20" t="n">
         <v>150.7019698410586</v>
@@ -36200,25 +36200,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>43.28534947792182</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36449,13 +36449,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>43.28534947792182</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36607,7 +36607,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O26" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P26" t="n">
         <v>90.5657124162131</v>
@@ -36677,13 +36677,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>91.0829537758999</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
@@ -36911,25 +36911,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>169.9067907798017</v>
+        <v>169.9091475161415</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>6.382862610783645</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L32" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M32" t="n">
-        <v>215.3939976830282</v>
+        <v>117.7212987676277</v>
       </c>
       <c r="N32" t="n">
         <v>207.9338608153932</v>
@@ -37154,13 +37154,13 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>167.5013327054491</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="N33" t="n">
         <v>215.3939976830282</v>
       </c>
       <c r="O33" t="n">
-        <v>215.3939976830282</v>
+        <v>167.5013327054491</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
@@ -37306,13 +37306,13 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>6.382862610783645</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L35" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M35" t="n">
-        <v>215.3939976830282</v>
+        <v>117.7212987676277</v>
       </c>
       <c r="N35" t="n">
         <v>207.9338608153932</v>
@@ -37385,22 +37385,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>215.3939976830282</v>
+        <v>167.5013327054491</v>
       </c>
       <c r="M36" t="n">
-        <v>215.3939976830282</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>215.3939976830282</v>
       </c>
       <c r="O36" t="n">
-        <v>9.971898209808115</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
         <v>70.09551364982758</v>
@@ -37549,16 +37549,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M38" t="n">
-        <v>215.3939976830282</v>
+        <v>208.2870111838408</v>
       </c>
       <c r="N38" t="n">
-        <v>110.2611618999926</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O38" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P38" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37622,16 +37622,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>110.973048317057</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="N39" t="n">
-        <v>215.3939976830282</v>
+        <v>22.20284867224837</v>
       </c>
       <c r="O39" t="n">
         <v>215.3939976830282</v>
@@ -37859,16 +37859,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>213.4242636173429</v>
       </c>
       <c r="M42" t="n">
-        <v>37.01765175063407</v>
+        <v>213.4242636173429</v>
       </c>
       <c r="N42" t="n">
-        <v>213.4242636173429</v>
+        <v>20.31269982133822</v>
       </c>
       <c r="O42" t="n">
         <v>213.4242636173429</v>
@@ -37877,7 +37877,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
